--- a/hero/doc/log/log_201608040128-liuyuqin.xlsx
+++ b/hero/doc/log/log_201608040128-liuyuqin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\xiaoyuandingcan\doc\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\xiaoyuandingcan\hero\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -131,6 +131,26 @@
   </si>
   <si>
     <t>待解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00--21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,6 +592,23 @@
       </c>
       <c r="E6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040128-liuyuqin.xlsx
+++ b/hero/doc/log/log_201608040128-liuyuqin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\xiaoyuandingcan\hero\doc\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\xiaoyuandingcan\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -131,26 +131,6 @@
   </si>
   <si>
     <t>待解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00--21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,23 +572,6 @@
       </c>
       <c r="E6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040128-liuyuqin.xlsx
+++ b/hero/doc/log/log_201608040128-liuyuqin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\xiaoyuandingcan\doc\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
   <si>
     <t>日期</t>
   </si>
@@ -126,12 +126,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库表生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2018.5.20</t>
+  </si>
+  <si>
+    <t>19:00--21:00</t>
+  </si>
+  <si>
+    <t>观看JPA视频</t>
+  </si>
+  <si>
+    <t>观看</t>
+  </si>
+  <si>
+    <t>继续观看</t>
+  </si>
+  <si>
+    <t>2018.5.21</t>
+  </si>
+  <si>
+    <t>14:00--16:00</t>
+  </si>
+  <si>
+    <t>黑马视频,修改order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看,修改</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>2018.5.22</t>
+  </si>
+  <si>
+    <t>15:00--18:00</t>
+  </si>
+  <si>
+    <t>编写</t>
+  </si>
+  <si>
+    <t>编写部分</t>
+  </si>
+  <si>
+    <t>2018.5.23</t>
+  </si>
+  <si>
+    <t>修改order</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>2018.5.24</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>2018.5.26</t>
+  </si>
+  <si>
+    <t>观看spring视频</t>
+  </si>
+  <si>
+    <t>2018.5.28</t>
+  </si>
+  <si>
+    <t>20:00--22:00</t>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
+  <si>
+    <t>2018.5.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:00--19:00   </t>
+  </si>
+  <si>
+    <t>模板javaee</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>2018.6.2</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>2018.6.4</t>
+  </si>
+  <si>
+    <t>2018.6.5</t>
+  </si>
+  <si>
+    <t>2018.6.6</t>
+  </si>
+  <si>
+    <t>mvc视频</t>
+  </si>
+  <si>
+    <t>2018.6.7</t>
+  </si>
+  <si>
+    <t>2018.6.8</t>
+  </si>
+  <si>
+    <t>2018.6.9</t>
+  </si>
+  <si>
+    <t>json视频</t>
+  </si>
+  <si>
+    <t>2018.6.10</t>
+  </si>
+  <si>
+    <t>2018.6.12</t>
+  </si>
+  <si>
+    <t>编写报告</t>
+  </si>
+  <si>
+    <t>未完成,待做</t>
+  </si>
+  <si>
+    <t>2018.6.13</t>
+  </si>
+  <si>
+    <t>web文件</t>
+  </si>
+  <si>
+    <t>框架基本了解</t>
+  </si>
+  <si>
+    <t>待做</t>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+  </si>
+  <si>
+    <t>13:00--16:30</t>
+  </si>
+  <si>
+    <t>更新修改order,配置web文件</t>
+  </si>
+  <si>
+    <t>order更新完毕.jdk不兼容,重装,web文件创建</t>
+  </si>
+  <si>
+    <t>文件待编写</t>
+  </si>
+  <si>
+    <t>2018.6.18</t>
+  </si>
+  <si>
+    <t>报告</t>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+  </si>
+  <si>
+    <t>JIPA与Jenkins安装与使用</t>
+  </si>
+  <si>
+    <t>Jenkins安装并配置插件,按步骤进行当中,JIPA未完成</t>
+  </si>
+  <si>
+    <t>待完成</t>
+  </si>
+  <si>
+    <t>2018.6.20</t>
+  </si>
+  <si>
+    <t>JIPA的安装与立项讨论</t>
+  </si>
+  <si>
+    <t>安装一半,立项未完成</t>
+  </si>
+  <si>
+    <t>2018.6.21</t>
+  </si>
+  <si>
+    <t>Jenkins环境配置,讨论,分配立项报告</t>
+  </si>
+  <si>
+    <t>Jenkins运行svn服务器失败(暂时无法解决),立项报告完成部分</t>
+  </si>
+  <si>
+    <t>立项报告编写当中</t>
+  </si>
+  <si>
+    <t>2018.6.22</t>
+  </si>
+  <si>
+    <t>mysql安装与立项报告</t>
+  </si>
+  <si>
+    <t>mysql安装配置错误,调试中</t>
+  </si>
+  <si>
+    <t>继续安装</t>
+  </si>
+  <si>
+    <t>2018.6.23</t>
+  </si>
+  <si>
+    <t>mysql安装,JIRA安装</t>
+  </si>
+  <si>
+    <t>mysql配置成功</t>
+  </si>
+  <si>
+    <t>2018.6.24</t>
+  </si>
+  <si>
+    <t>14:00--17:40</t>
+  </si>
+  <si>
+    <t>JIRA安装与配置</t>
+  </si>
+  <si>
+    <t>,JIRA配置失败,寻找翻墙软件</t>
+  </si>
+  <si>
+    <t>2018.6.25</t>
+  </si>
+  <si>
+    <t>19:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装成功</t>
+  </si>
+  <si>
+    <t>Jenkins继续安装</t>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+  </si>
+  <si>
+    <t>Jenkins错误修改,继续安装</t>
+  </si>
+  <si>
+    <t>报告文档</t>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+  </si>
+  <si>
+    <t>19:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块修改,文档编写</t>
+  </si>
+  <si>
+    <t>模块继续修改,文档待编写</t>
+  </si>
+  <si>
+    <t>继续修改,编写文档</t>
+  </si>
+  <si>
+    <t>2018.6.28</t>
+  </si>
+  <si>
+    <t>2018.6.29</t>
+  </si>
+  <si>
+    <t>2018.7.2</t>
+  </si>
+  <si>
+    <t>order模块增添实体属性,文档编写</t>
+  </si>
+  <si>
+    <t>运行成功,文档继续编写</t>
+  </si>
+  <si>
+    <t>继续编写</t>
+  </si>
+  <si>
+    <t>2018.7.3</t>
+  </si>
+  <si>
+    <t>Jenkins使用说明</t>
+  </si>
+  <si>
+    <t>使用</t>
   </si>
 </sst>
 </file>
@@ -457,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -568,10 +854,571 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
